--- a/Dokument/Testprotokoll.xlsx
+++ b/Dokument/Testprotokoll.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LucasNordqvist\source\repos\Miniprojekt\Dokument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC5B4E7-83D7-4910-B272-5ADD83A9E599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE792DE7-8C4B-47B3-B14A-214F56EAE677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3FD90713-5C08-4781-8895-612D618CF06D}"/>
+    <workbookView xWindow="0" yWindow="2475" windowWidth="28800" windowHeight="13125" xr2:uid="{3FD90713-5C08-4781-8895-612D618CF06D}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
   <dimension ref="A2:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +527,7 @@
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -535,7 +535,7 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -543,7 +543,7 @@
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -559,7 +559,7 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -575,7 +575,7 @@
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -591,7 +591,7 @@
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -599,7 +599,7 @@
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -615,7 +615,7 @@
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
     </row>
